--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_26_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90002.11895058106</v>
+        <v>16047818.03595565</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90002.11895058106</v>
+        <v>16047818.03595565</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2087.966174649819</v>
+        <v>159852.1210979979</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2087.966174649819</v>
+        <v>159852.1210979979</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959442729.545761</v>
+        <v>39707468.78740243</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7997.934170169604</v>
+        <v>948464.632391658</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14968.48913420618</v>
+        <v>1733355.217462205</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21937.3977130253</v>
+        <v>2518245.802532753</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28843.90813652101</v>
+        <v>3303939.001065599</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35954.81638009819</v>
+        <v>4089464.158136147</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42997.94374017272</v>
+        <v>4874989.315206694</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>50046.04907514393</v>
+        <v>5660514.472277239</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>57035.85560798182</v>
+        <v>6446039.629347784</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>64104.57428712959</v>
+        <v>7231919.617004385</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>71238.01467237467</v>
+        <v>8017705.284952085</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>78332.1934980815</v>
+        <v>8803490.952899721</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>85368.7798212426</v>
+        <v>9588921.790261252</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>92429.45935200831</v>
+        <v>10374446.9473318</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>99495.21708737775</v>
+        <v>11150884.03619856</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>106582.165856578</v>
+        <v>11928879.9683461</v>
       </c>
     </row>
   </sheetData>
@@ -27040,25 +27040,25 @@
         <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>387</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>37</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>373.0000000000705</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>284</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
